--- a/biology/Zoologie/Anhinga_d'Amérique/Anhinga_d'Amérique.xlsx
+++ b/biology/Zoologie/Anhinga_d'Amérique/Anhinga_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anhinga_d%27Am%C3%A9rique</t>
+          <t>Anhinga_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anhinga anhinga
 L‘Anhinga d'Amérique (Anhinga anhinga) est une espèce d'oiseau aquatique de la famille des Anhingidae vivant dans les parties les plus chaudes du continent américain. Le mot « Anhinga » vient de la langue tupi du Brésil et veut dire « oiseau-diable » ou « oiseau-serpent ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anhinga_d%27Am%C3%A9rique</t>
+          <t>Anhinga_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une longueur moyenne du corps de 85 à 89 cm, une envergure de 117 cm et un poids de 1 350 g, c'est un oiseau piscivore au plumage sombre avec un cou très long qui nage souvent avec seulement ce dernier au-dessus de l'eau. Lorsqu'il nage ainsi, on comprend aisément son nom d'oiseau-serpent, puisque seul son cou coloré apparaît au-dessus de l'eau et qu'il ressemble à un serpent prêt à frapper. Cet oiseau présente une longue queue en éventail de couleur noire avec l'extrémité brun chamois. Le bec est jaune. Les couvertures sus-alaires sont gris argent. Le dimorphisme sexuel est net puisque la femelle a la tête et le cou brun chamois au lieu de noir.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anhinga_d%27Am%C3%A9rique</t>
+          <t>Anhinga_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son nom l'indique, cet oiseau peuple une partie de l'Amérique : Costa Rica...
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anhinga_d%27Am%C3%A9rique</t>
+          <t>Anhinga_d'Amérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les rivières, les marais et les lagunes.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anhinga_d%27Am%C3%A9rique</t>
+          <t>Anhinga_d'Amérique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Anhinga d'Amérique est étroitement lié aux Anhingas roux (Anhinga melanogaster), d'Afrique (A. rufa) et d'Australie (A. novaehollandiae).
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anhinga_d%27Am%C3%A9rique</t>
+          <t>Anhinga_d'Amérique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement au canard, l'Anhinga n'est pas en mesure d'imperméabiliser ses plumes en utilisant de l'huile produite par la glande uropygienne. Par conséquent, les plumes deviennent vite saturées d'eau, rendant l'oiseau à peine capable de flotter. Toutefois, cela lui permet de plonger facilement et de rechercher ses proies sous l'eau, tels que poissons et amphibiens. Il peut rester en plongée pendant des durées importantes.
 Si nécessaire, l'Anhinga va sécher ses ailes et ses plumes. Il va se tenir perché pendant de longues périodes avec ses ailes déployées pour se sécher, tout comme les cormorans. S'il tente de s'envoler pendant que ses ailes sont humides, il a beaucoup de peine à sortir de l'eau et s'envole en battant vigoureusement des ailes tout en « courant » sur l'eau.
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anhinga_d%27Am%C3%A9rique</t>
+          <t>Anhinga_d'Amérique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Anhinga d'Amérique se reproduit en colonies, souvent avec d'autres oiseaux aquatiques.
 </t>
@@ -682,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anhinga_d%27Am%C3%A9rique</t>
+          <t>Anhinga_d'Amérique</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,7 +724,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 2 sous-espèces :
 Anhinga anhinga anhinga (Linnaeus) 1766 ;
